--- a/comparison/mobley_problems/Fig2 and fig7.xlsx
+++ b/comparison/mobley_problems/Fig2 and fig7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\mgimond\aomc\comparison\mobley_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5A8478-697E-4C5E-88BC-A587AD870005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC1AE9-BCD4-4B2D-9DF8-14C243D9B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16990" yWindow="4120" windowWidth="30480" windowHeight="13450" xr2:uid="{DC0081CF-8CBA-466F-B67E-AEBB45222249}"/>
+    <workbookView xWindow="16280" yWindow="3110" windowWidth="15380" windowHeight="17000" xr2:uid="{DC0081CF-8CBA-466F-B67E-AEBB45222249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,97 +37,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>prob1  omega 09</t>
-  </si>
-  <si>
-    <t>0.00301384513667787,</t>
-  </si>
-  <si>
-    <t>0.15531338980103568,</t>
-  </si>
-  <si>
-    <t>0.09700928287055914,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>Lu</t>
   </si>
   <si>
-    <t>0.6277723707517232,</t>
-  </si>
-  <si>
-    <t>0.3262518405809076,</t>
-  </si>
-  <si>
-    <t>0.0032079443080893335,</t>
-  </si>
-  <si>
     <t>Eou</t>
   </si>
   <si>
-    <t>Prob6 (fig 7)</t>
-  </si>
-  <si>
-    <t>0.00008740947088126954,</t>
-  </si>
-  <si>
-    <t>0.0001643344788576245,</t>
-  </si>
-  <si>
-    <t>0.00006984830775922155,</t>
-  </si>
-  <si>
-    <t>0.00004968764452117099,</t>
-  </si>
-  <si>
-    <t>0.00007781326067174207,</t>
-  </si>
-  <si>
-    <t>0.00035287356853497444,</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>0.059848978305551956,</t>
-  </si>
-  <si>
-    <t>0.0027005837371548687,</t>
-  </si>
-  <si>
-    <t>0.0003898604457238531,</t>
-  </si>
-  <si>
-    <t>0.0002573557624623307,</t>
-  </si>
-  <si>
-    <t>0.00047984025792565814,</t>
-  </si>
-  <si>
-    <t>0.002249533102507802,</t>
-  </si>
-  <si>
-    <t>0.49770294367882134,</t>
-  </si>
-  <si>
-    <t>0.4735056730253778,</t>
-  </si>
-  <si>
-    <t>0.002287216207162888,</t>
-  </si>
-  <si>
     <t>Ed</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>fig2a</t>
+  </si>
+  <si>
+    <t>fig7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,233 +421,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66194B23-5434-4820-81EA-781EFE9F37D7}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.0138451366778702E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>9.98904656281759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.15531338980103501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9.7009282870559099E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.62777237075172299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.326251840580907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3.20794430808933E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>8.7409470881269499E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.6433447885762399E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.99362372629805495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6.9848307759221495E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2.0244421879380599</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4.9687644521170898E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.9968120577350801</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7.7813260671741999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4.9628060430022698</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3.52873568534974E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5.98489783055519E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.70058373715486E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2.0138150651014799</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3.8986044572385302E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.0233796702404598</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2.5735576246233E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>4.0276301302029696</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4.7984025792565798E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4.99468702233988</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2.2495331025078002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2.1906072150290602E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-0.94194947035189702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1.0953036075145301E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-0.98576121354521695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>-0.48352825148239398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>5.3135614182870904E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>0.99362372629805495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>2.0244421879380599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>2.9968120577350801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>4.9628060430022698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>0.49770294367882101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.47350567302537699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>-0.48884161831462503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>2.0138150651014799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>3.0233796702404598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>4.0276301302029696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>4.99468702233988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>-0.49415517973291201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32">
         <v>4.98405951033119</v>
       </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2.2872162071628801E-3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>